--- a/MonteCarloResultsSimpleTestTEST2.xlsx
+++ b/MonteCarloResultsSimpleTestTEST2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>LP1</t>
   </si>
   <si>
@@ -80,6 +86,12 @@
   </si>
   <si>
     <t>industrial</t>
+  </si>
+  <si>
+    <t>(6.611125567935338, 7.81575856810396)</t>
+  </si>
+  <si>
+    <t>(6.421826096480269, 8.005058039559028)</t>
   </si>
 </sst>
 </file>
@@ -437,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,13 +501,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.535</v>
@@ -507,36 +525,36 @@
         <v>210</v>
       </c>
       <c r="F2">
-        <v>1.889563498894502</v>
+        <v>2.160997846649438</v>
       </c>
       <c r="G2">
-        <v>1280</v>
+        <v>1382</v>
       </c>
       <c r="H2">
-        <v>0.8857328901067978</v>
+        <v>0.9382045643919412</v>
       </c>
       <c r="I2">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="J2">
-        <v>448</v>
+        <v>483.7</v>
       </c>
       <c r="K2">
-        <v>396.8083347678455</v>
+        <v>453.8095477963819</v>
       </c>
       <c r="L2">
-        <v>186.0039069224275</v>
+        <v>197.0229585223076</v>
       </c>
       <c r="M2">
-        <v>1.010916471908559</v>
+        <v>1.156133847957449</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.535</v>
@@ -548,36 +566,36 @@
         <v>210</v>
       </c>
       <c r="F3">
-        <v>2.224653412131624</v>
+        <v>3.153339773434606</v>
       </c>
       <c r="G3">
-        <v>1280</v>
+        <v>1382</v>
       </c>
       <c r="H3">
-        <v>1.042806286936699</v>
+        <v>1.36903318672993</v>
       </c>
       <c r="I3">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="J3">
-        <v>448</v>
+        <v>483.7</v>
       </c>
       <c r="K3">
-        <v>467.177216547641</v>
+        <v>662.2013524212673</v>
       </c>
       <c r="L3">
-        <v>218.9893202567067</v>
+        <v>287.4969692132854</v>
       </c>
       <c r="M3">
-        <v>1.190189575490419</v>
+        <v>1.687036778787514</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.535</v>
@@ -589,36 +607,36 @@
         <v>210</v>
       </c>
       <c r="F4">
-        <v>2.7631390548849</v>
+        <v>3.890783287857701</v>
       </c>
       <c r="G4">
-        <v>1280</v>
+        <v>1382</v>
       </c>
       <c r="H4">
-        <v>1.295221431977297</v>
+        <v>1.689196796464993</v>
       </c>
       <c r="I4">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="J4">
-        <v>448</v>
+        <v>483.7</v>
       </c>
       <c r="K4">
-        <v>580.2592015258289</v>
+        <v>817.0644904501172</v>
       </c>
       <c r="L4">
-        <v>271.9965007152323</v>
+        <v>354.7313272576486</v>
       </c>
       <c r="M4">
-        <v>1.478279394363421</v>
+        <v>2.08156905900387</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0.5659999999999999</v>
@@ -630,33 +648,33 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2.248863380119626</v>
+        <v>4.043643784930774</v>
       </c>
       <c r="G5">
-        <v>1280</v>
+        <v>1382</v>
       </c>
       <c r="H5">
-        <v>1.054154709431075</v>
+        <v>1.755561701127688</v>
       </c>
       <c r="I5">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="J5">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="K5">
-        <v>2.248863380119626</v>
+        <v>4.043643784930774</v>
       </c>
       <c r="L5">
-        <v>1.054154709431075</v>
+        <v>1.755561701127688</v>
       </c>
       <c r="M5">
-        <v>1.272856673147708</v>
+        <v>2.288702382270818</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2.171</v>
@@ -668,16 +686,16 @@
         <v>631</v>
       </c>
       <c r="J6">
-        <v>2.133333333333333</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="K6">
-        <v>2.292382910018122</v>
+        <v>3.069919230511406</v>
       </c>
       <c r="L6">
-        <v>1.074554489070995</v>
+        <v>1.332815874317542</v>
       </c>
       <c r="M6">
-        <v>4.952242114910107</v>
+        <v>7.213442068019651</v>
       </c>
       <c r="N6">
         <v>600</v>
@@ -686,7 +704,13 @@
         <v>0.05</v>
       </c>
       <c r="P6">
-        <v>0.03226983845297499</v>
+        <v>0.04260162262065212</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
